--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201732.1177101069</v>
+        <v>304239.2234927444</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>2755553.59165293</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>20120750.05383736</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5201920.383830386</v>
+        <v>4890972.686918095</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423081</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.88091821707973</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>38.87161743162454</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.13217237922859</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="13">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7904504476822691</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="H16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>102.3382270926889</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="19">
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>78.94281254009712</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>197.0267637357615</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>58.39471844666272</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2839,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>126.6087008028653</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>97.01986919358308</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>96.66381719626267</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>81.33928622659347</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>200.3360962888297</v>
+        <v>188.6104553092291</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>40.34311726787551</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>40.47627913313511</v>
+        <v>96.66381719626267</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.12459906845636</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>101.1936232660443</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>199.4717595883195</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>161.788543397518</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>122.5899586056059</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3897,70 +3897,70 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>52.42556848774752</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>59.59334086171457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.12036407145865</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>5.679062365732284</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.10852568854899</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M2" t="n">
-        <v>47.22142444577459</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X2" t="n">
-        <v>131.9507376187037</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.68647758675968</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M3" t="n">
-        <v>134.6031257566472</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N3" t="n">
-        <v>176.5286895169144</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="W3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="X3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.80375594835618</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S4" t="n">
-        <v>93.48491238239833</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T4" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U4" t="n">
-        <v>93.48491238239833</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V4" t="n">
-        <v>93.48491238239833</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W4" t="n">
-        <v>48.90696048418764</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S5" t="n">
-        <v>92.68647758675968</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T5" t="n">
-        <v>48.10852568854899</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U5" t="n">
-        <v>3.530573790338288</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>40.631385380739</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T6" t="n">
-        <v>131.9507376187037</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U6" t="n">
-        <v>92.68647758675968</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V6" t="n">
-        <v>48.10852568854899</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W6" t="n">
-        <v>48.10852568854899</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X6" t="n">
-        <v>48.10852568854899</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T7" t="n">
-        <v>93.48491238239833</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U7" t="n">
-        <v>93.48491238239833</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V7" t="n">
-        <v>48.90696048418764</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.70321845405519</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C8" t="n">
-        <v>32.70321845405519</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D8" t="n">
-        <v>32.70321845405519</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T8" t="n">
-        <v>121.8591222504766</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U8" t="n">
-        <v>121.8591222504766</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V8" t="n">
-        <v>121.8591222504766</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W8" t="n">
-        <v>121.8591222504766</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8591222504766</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y8" t="n">
-        <v>77.28117035226589</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U9" t="n">
-        <v>87.37278572049297</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V9" t="n">
-        <v>42.79483382228227</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V10" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W10" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.10852568854899</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C11" t="n">
-        <v>48.10852568854899</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D11" t="n">
-        <v>48.10852568854899</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8591222504766</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T11" t="n">
-        <v>77.28117035226589</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U11" t="n">
-        <v>77.28117035226589</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V11" t="n">
-        <v>77.28117035226589</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W11" t="n">
-        <v>77.28117035226589</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X11" t="n">
-        <v>77.28117035226589</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.28117035226589</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.79483382228227</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C12" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L12" t="n">
-        <v>89.14698820604177</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V12" t="n">
-        <v>87.37278572049297</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W12" t="n">
-        <v>87.37278572049297</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X12" t="n">
-        <v>42.79483382228227</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.79483382228227</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N14" t="n">
-        <v>90.91227510121089</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S14" t="n">
-        <v>166.4370741486873</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8591222504766</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U14" t="n">
-        <v>121.8591222504766</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="V14" t="n">
-        <v>77.28117035226589</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W14" t="n">
-        <v>77.28117035226589</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V15" t="n">
-        <v>131.9507376187037</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W15" t="n">
-        <v>92.68647758675968</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X15" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E16" t="n">
-        <v>93.48491238239833</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F16" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G16" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C21" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D21" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X21" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y21" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6174,7 +6174,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6314,40 +6314,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>435.6470747334852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
         <v>20.03527576299844</v>
@@ -6408,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>333.7844730889342</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y29" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>293.7032776518786</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>147.1687196787636</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>866.0572876383301</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>866.0572876383301</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>663.8706929970961</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6648,19 +6648,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366.1018663125844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C32" t="n">
-        <v>366.1018663125844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>294.4930643430524</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4686916059566</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>717.3232138131959</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>794.7036564643652</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>583.5722730439153</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>116.7637837751222</v>
       </c>
       <c r="V32" t="n">
-        <v>366.1018663125844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="W32" t="n">
-        <v>366.1018663125844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1018663125844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y32" t="n">
-        <v>366.1018663125844</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>431.2151130530042</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>431.2151130530042</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>431.2151130530042</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.9776580475487</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.9776580475487</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.2468326301643</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>773.5347416345442</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>681.5913452514495</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>681.5913452514495</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>681.5913452514495</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>599.4304500730723</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>599.4304500730723</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>599.4304500730723</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>599.4304500730723</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>755.5709924562042</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>755.5709924562042</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>514.1118461814832</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>773.5347416345442</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>855.0086898007806</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>626.7850715371696</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>391.6329633054269</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>150.173817030706</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>109.4231935278014</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.4231935278014</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>794.7036564643652</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>583.5722730439153</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>358.2229300498432</v>
       </c>
       <c r="U38" t="n">
-        <v>559.1338160830064</v>
+        <v>116.7637837751222</v>
       </c>
       <c r="V38" t="n">
-        <v>315.6850394389064</v>
+        <v>116.7637837751222</v>
       </c>
       <c r="W38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>693.6260374137559</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C39" t="n">
-        <v>519.1730081326289</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D39" t="n">
-        <v>370.2385984713777</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E39" t="n">
-        <v>370.2385984713777</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>773.5347416345442</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.8099373605653</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.8099373605653</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.8099373605653</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>703.5863190969544</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>468.4342108652116</v>
       </c>
       <c r="W39" t="n">
-        <v>861.8413744338238</v>
+        <v>226.9750645904907</v>
       </c>
       <c r="X39" t="n">
-        <v>861.8413744338238</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y39" t="n">
-        <v>861.8413744338238</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>48.24862428274406</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>228.3244758674026</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>445.3001031303068</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>651.1546253375461</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>800.3495754801942</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>668.7866319835682</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="U41" t="n">
-        <v>366.1018663125844</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="V41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>444.0367252229003</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.4044113554191</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="C42" t="n">
-        <v>133.4044113554191</v>
+        <v>451.9999856671957</v>
       </c>
       <c r="D42" t="n">
-        <v>133.4044113554191</v>
+        <v>303.0655760059444</v>
       </c>
       <c r="E42" t="n">
-        <v>133.4044113554191</v>
+        <v>303.0655760059444</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>156.5310180328294</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>803.9899035216744</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="T42" t="n">
-        <v>840.2289144948727</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="U42" t="n">
-        <v>612.0052962312618</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="V42" t="n">
-        <v>376.8531879995192</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="W42" t="n">
-        <v>133.4044113554191</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="X42" t="n">
-        <v>133.4044113554191</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.4044113554191</v>
+        <v>615.4227567757997</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>48.24862428274406</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>228.3244758674026</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>445.3001031303068</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>651.1546253375461</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>800.3495754801942</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>527.4952999364925</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>302.7453931758246</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>242.5500993761129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>627.7355178317791</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="C45" t="n">
-        <v>613.4725238202047</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="D45" t="n">
-        <v>464.5381141589534</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="E45" t="n">
-        <v>305.3006591534979</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>803.9899035216744</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>564.0901945644629</v>
       </c>
       <c r="V45" t="n">
-        <v>627.7355178317791</v>
+        <v>339.3402878037949</v>
       </c>
       <c r="W45" t="n">
-        <v>627.7355178317791</v>
+        <v>114.5903810431269</v>
       </c>
       <c r="X45" t="n">
-        <v>627.7355178317791</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="Y45" t="n">
-        <v>627.7355178317791</v>
+        <v>108.8539544110741</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8856,10 +8856,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9093,10 +9093,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>409.8618635024844</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>306.2112077195392</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>373.0008302147792</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>306.2112077195392</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>373.0008302147792</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>306.2112077195392</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>250.845842628111</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O42" t="n">
-        <v>242.4075215744184</v>
+        <v>229.4848578288594</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>250.845842628111</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>353.8441197763946</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>229.4848578288594</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>369.3547168025758</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>149.8634099458648</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22755,22 +22755,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W4" t="n">
-        <v>242.3908259573624</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X4" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>373.6622853863676</v>
       </c>
     </row>
     <row r="6">
@@ -22874,10 +22874,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>77.59148166841231</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22995,22 +22995,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>183.8134170490529</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V7" t="n">
-        <v>208.0054709445994</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W7" t="n">
-        <v>242.3908259573624</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.7942029044125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>353.049451855182</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23071,10 +23071,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>194.7094745515037</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="9">
@@ -23105,13 +23105,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,13 +23156,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.8233657292951</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23226,28 +23226,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>208.0054709445994</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.8529234464008</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>337.7981976930332</v>
+        <v>357.6290758229753</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X12" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="13">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23466,19 +23466,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>400.9921424803934</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>340.8501824613893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W15" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>161.6408128242489</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2005289107765</v>
+        <v>145.5422199979494</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23700,10 +23700,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>304.5378186490225</v>
+        <v>377.9951275246317</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.4807660112426</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="19">
@@ -23937,22 +23937,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>78.70226791530382</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24180,16 +24180,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>312.9645104224461</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24414,10 +24414,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>160.9567151697601</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>35.77382341366379</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24648,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>323.535651625599</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>385.5205714063148</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24767,13 +24767,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>10.73481636034532</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.137964959060056</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24824,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>264.2941038826066</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>231.0884412738722</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>151.4613009228318</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>143.6892868515068</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>126.2283369590338</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,16 +25207,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>22.7597532753017</v>
+        <v>34.48539425490227</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>88.70770365816117</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>165.429867935602</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>308.7646895842779</v>
+        <v>252.5771515211503</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>76.03323508418677</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>150.5013598948753</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>182.4586104839423</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>116.9723944227059</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25709,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>10.91995559079777</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>77.57477008921572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>170.6702810763838</v>
+        <v>0.5934418710700697</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>191.7523120461219</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>158.5881349168571</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>3.438974387913532</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>10.29817945636398</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>29.19257546785832</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>200.0939228377452</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364636.6663211567</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364636.6663211565</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364636.6663211564</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312142</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364636.6663211564</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211566</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211564</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939184</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>51644.51686548872</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51644.51686548872</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53798.85240803944</v>
+      </c>
+      <c r="H2" t="n">
         <v>53798.85240803943</v>
-      </c>
-      <c r="C2" t="n">
-        <v>53798.85240803943</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53798.85240803943</v>
-      </c>
-      <c r="E2" t="n">
-        <v>53798.85240803943</v>
-      </c>
-      <c r="F2" t="n">
-        <v>53798.85240803943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>74772.30263909957</v>
-      </c>
-      <c r="H2" t="n">
-        <v>74772.30263909958</v>
       </c>
       <c r="I2" t="n">
         <v>74772.30263909959</v>
@@ -26340,22 +26340,22 @@
         <v>74772.30263909959</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909959</v>
+        <v>74772.30263909957</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.47088733962</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.47088733959</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909958</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="O2" t="n">
-        <v>74772.30263909961</v>
+        <v>72800.26970074198</v>
       </c>
       <c r="P2" t="n">
-        <v>74772.30263909959</v>
+        <v>72800.26970074198</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238274</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>4533.95439308712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52355.08930137913</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>6703.395469327987</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="G4" t="n">
         <v>36.87052286425572</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>36.87052286425572</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="G4" t="n">
-        <v>179.5324977039669</v>
-      </c>
-      <c r="H4" t="n">
-        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26447,19 +26447,19 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="G5" t="n">
         <v>2683.236080657098</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2683.236080657098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14653.66876376167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14653.66876376167</v>
       </c>
       <c r="I5" t="n">
         <v>14653.66876376167</v>
@@ -26499,19 +26499,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11886.95417877329</v>
+        <v>6372.261181020242</v>
       </c>
       <c r="C6" t="n">
-        <v>2902.751825470928</v>
+        <v>14958.21002703851</v>
       </c>
       <c r="D6" t="n">
-        <v>2902.751825470925</v>
+        <v>14468.73709170896</v>
       </c>
       <c r="E6" t="n">
-        <v>36530.35182547093</v>
+        <v>48708.19558453279</v>
       </c>
       <c r="F6" t="n">
-        <v>36530.35182547093</v>
+        <v>48708.19558453279</v>
       </c>
       <c r="G6" t="n">
-        <v>-6241.344142878856</v>
+        <v>45089.95201352624</v>
       </c>
       <c r="H6" t="n">
-        <v>47721.09075759348</v>
+        <v>49623.90640661336</v>
       </c>
       <c r="I6" t="n">
-        <v>47721.09075759348</v>
+        <v>6362.211014250782</v>
       </c>
       <c r="J6" t="n">
-        <v>36174.17264760261</v>
+        <v>52013.90484630193</v>
       </c>
       <c r="K6" t="n">
-        <v>47721.09075759349</v>
+        <v>58717.30031562988</v>
       </c>
       <c r="L6" t="n">
-        <v>47721.09075759349</v>
+        <v>58626.32421239692</v>
       </c>
       <c r="M6" t="n">
-        <v>47721.09075759349</v>
+        <v>58626.3242123969</v>
       </c>
       <c r="N6" t="n">
-        <v>47721.09075759347</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="O6" t="n">
-        <v>341.212540129718</v>
+        <v>57862.29209750256</v>
       </c>
       <c r="P6" t="n">
-        <v>47721.09075759349</v>
+        <v>57862.29209750256</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26819,19 +26819,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>16.54214711891245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>196.8821164984305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330018</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330016</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>174.0954485324972</v>
       </c>
       <c r="M32" t="n">
         <v>219.1673002655598</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>164.0771737975209</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>142.9026187930925</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>164.0771737975209</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>142.9026187930925</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>164.0771737975209</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>30.75599158313046</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37864,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O42" t="n">
-        <v>99.8112771299739</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>30.75599158313046</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38101,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9067907798016</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
